--- a/db_files/entries_2013.xlsx
+++ b/db_files/entries_2013.xlsx
@@ -1189,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1202,7 @@
     <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1221,8 +1221,11 @@
       <c r="F1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1241,8 +1244,11 @@
       <c r="F2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1261,8 +1267,11 @@
       <c r="F3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1281,8 +1290,11 @@
       <c r="F4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1301,8 +1313,11 @@
       <c r="F5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1321,8 +1336,11 @@
       <c r="F6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1341,8 +1359,11 @@
       <c r="F7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1361,8 +1382,11 @@
       <c r="F8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1381,8 +1405,11 @@
       <c r="F9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1401,8 +1428,11 @@
       <c r="F10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1421,8 +1451,11 @@
       <c r="F11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1441,8 +1474,11 @@
       <c r="F12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1461,8 +1497,11 @@
       <c r="F13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1481,8 +1520,11 @@
       <c r="F14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1501,8 +1543,11 @@
       <c r="F15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1521,8 +1566,11 @@
       <c r="F16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1541,8 +1589,11 @@
       <c r="F17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1561,8 +1612,11 @@
       <c r="F18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1581,8 +1635,11 @@
       <c r="F19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1601,8 +1658,11 @@
       <c r="F20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1621,8 +1681,11 @@
       <c r="F21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1641,8 +1704,11 @@
       <c r="F22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1661,8 +1727,11 @@
       <c r="F23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1681,8 +1750,11 @@
       <c r="F24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1701,8 +1773,11 @@
       <c r="F25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1721,8 +1796,11 @@
       <c r="F26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1741,8 +1819,11 @@
       <c r="F27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1761,8 +1842,11 @@
       <c r="F28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1781,8 +1865,11 @@
       <c r="F29" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1801,8 +1888,11 @@
       <c r="F30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1821,8 +1911,11 @@
       <c r="F31" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1841,8 +1934,11 @@
       <c r="F32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1861,8 +1957,11 @@
       <c r="F33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1881,8 +1980,11 @@
       <c r="F34" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1901,8 +2003,11 @@
       <c r="F35" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1921,8 +2026,11 @@
       <c r="F36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1941,8 +2049,11 @@
       <c r="F37" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1961,8 +2072,11 @@
       <c r="F38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1981,8 +2095,11 @@
       <c r="F39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2001,8 +2118,11 @@
       <c r="F40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2021,8 +2141,11 @@
       <c r="F41" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -2041,8 +2164,11 @@
       <c r="F42" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -2061,8 +2187,11 @@
       <c r="F43" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -2081,8 +2210,11 @@
       <c r="F44" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -2101,8 +2233,11 @@
       <c r="F45" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -2121,8 +2256,11 @@
       <c r="F46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2141,8 +2279,11 @@
       <c r="F47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2161,8 +2302,11 @@
       <c r="F48" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -2181,8 +2325,11 @@
       <c r="F49" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -2201,8 +2348,11 @@
       <c r="F50" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -2221,8 +2371,11 @@
       <c r="F51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2241,8 +2394,11 @@
       <c r="F52" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -2261,8 +2417,11 @@
       <c r="F53" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -2281,8 +2440,11 @@
       <c r="F54" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -2301,8 +2463,11 @@
       <c r="F55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -2321,8 +2486,11 @@
       <c r="F56" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -2341,8 +2509,11 @@
       <c r="F57" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -2361,8 +2532,11 @@
       <c r="F58" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2380,6 +2554,9 @@
       </c>
       <c r="F59" t="s">
         <v>67</v>
+      </c>
+      <c r="G59">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
